--- a/t/regression/xlsx_files/chart_data_labels25.xlsx
+++ b/t/regression/xlsx_files/chart_data_labels25.xlsx
@@ -69,7 +69,7 @@
           <c:order val="0"/>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr rot="2700000"/>
+              <a:bodyPr rot="2700000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -110,7 +110,7 @@
           <c:order val="1"/>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr rot="-2700000"/>
+              <a:bodyPr rot="-2700000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -175,24 +175,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="108652800"/>
-        <c:axId val="108656128"/>
+        <c:axId val="108315392"/>
+        <c:axId val="108329600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108652800"/>
+        <c:axId val="108315392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108656128"/>
+        <c:crossAx val="108329600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108656128"/>
+        <c:axId val="108329600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -200,7 +200,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108652800"/>
+        <c:crossAx val="108315392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -213,7 +213,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
